--- a/AutoOrg/Data/GithubUsernames.xlsx
+++ b/AutoOrg/Data/GithubUsernames.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen - Work\Documents\Revature\Fun Projects\Puppeteer\AutoOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen - Work\Documents\Revature\Fun Projects\Puppeteer\AutoOrg\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E24419-BE8B-419D-9FCF-79CED58F3C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3B2F4B-879D-481C-87C1-D97457682A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16770" yWindow="3465" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17115" yWindow="3810" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Github username</t>
   </si>
   <si>
-    <t>thatsnegative</t>
-  </si>
-  <si>
     <t>kwasserman</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>vijhan</t>
+  </si>
+  <si>
+    <t>roaringsheep</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,97 +454,97 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/AutoOrg/Data/GithubUsernames.xlsx
+++ b/AutoOrg/Data/GithubUsernames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen - Work\Documents\Revature\Fun Projects\Puppeteer\AutoOrg\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3B2F4B-879D-481C-87C1-D97457682A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635FBA01-0B4E-426A-ACA3-2FD7B2B98566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17115" yWindow="3810" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10620" yWindow="3645" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Github username</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>roaringsheep</t>
+  </si>
+  <si>
+    <t>BenArayathel</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,92 +461,97 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/AutoOrg/Data/GithubUsernames.xlsx
+++ b/AutoOrg/Data/GithubUsernames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen - Work\Documents\Revature\Fun Projects\Puppeteer\AutoOrg\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635FBA01-0B4E-426A-ACA3-2FD7B2B98566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66C0D3C-F721-46B0-A29C-C3630652EB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="3645" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,69 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Github username</t>
   </si>
   <si>
-    <t>kwasserman</t>
-  </si>
-  <si>
-    <t>bshively2</t>
-  </si>
-  <si>
-    <t>ncolorado10</t>
-  </si>
-  <si>
-    <t>Roomsiejones</t>
-  </si>
-  <si>
-    <t>naruto7878</t>
-  </si>
-  <si>
-    <t>OctoberSith</t>
-  </si>
-  <si>
-    <t>Bdawkins00</t>
-  </si>
-  <si>
-    <t>andydemarks</t>
-  </si>
-  <si>
-    <t>sandovro</t>
-  </si>
-  <si>
-    <t>Hy0tic</t>
-  </si>
-  <si>
-    <t>kirasn</t>
-  </si>
-  <si>
-    <t>hsprime85</t>
-  </si>
-  <si>
-    <t>chadcsolo1</t>
-  </si>
-  <si>
-    <t>TerranceUsher</t>
-  </si>
-  <si>
-    <t>Abdulkerim55</t>
-  </si>
-  <si>
-    <t>Jasminetseng7</t>
-  </si>
-  <si>
-    <t>dbrenes90</t>
-  </si>
-  <si>
-    <t>vijhan</t>
-  </si>
-  <si>
-    <t>roaringsheep</t>
-  </si>
-  <si>
-    <t>BenArayathel</t>
+    <t>Scifiler-sys</t>
   </si>
 </sst>
 </file>
@@ -442,7 +385,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,103 +400,65 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
